--- a/Documents/Meeting Minutes/MeetingMinute_20170509.xlsx
+++ b/Documents/Meeting Minutes/MeetingMinute_20170509.xlsx
@@ -24,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L34" authorId="0" shapeId="0">
+    <comment ref="L35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M34" authorId="0" shapeId="0">
+    <comment ref="M35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>FPT Hoalac Campus 105R</t>
+  </si>
+  <si>
+    <t>Instructor</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -431,6 +434,49 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,6 +495,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -473,29 +546,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,49 +565,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -911,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1563,37 +1572,37 @@
   <sheetData>
     <row r="1" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1605,8 +1614,8 @@
       <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="41">
-        <v>42983.375</v>
+      <c r="L3" s="13">
+        <v>42864.375</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1620,11 +1629,11 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1688,477 +1697,514 @@
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="15" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="13"/>
+      <c r="M7" s="28"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="47" t="s">
+      <c r="C8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="47"/>
+      <c r="M8" s="51"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46">
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="47" t="s">
+      <c r="C9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="47"/>
+      <c r="M9" s="21"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45" t="s">
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="47" t="s">
+      <c r="K10" s="21"/>
+      <c r="L10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="47"/>
+      <c r="M10" s="21"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46">
+      <c r="B11" s="14">
         <v>4</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45" t="s">
+      <c r="C11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="47" t="s">
+      <c r="K11" s="21"/>
+      <c r="L11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="47"/>
+      <c r="M11" s="21"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="46">
+      <c r="B12" s="14">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45" t="s">
+      <c r="C12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="47" t="s">
+      <c r="K12" s="21"/>
+      <c r="L12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="47"/>
+      <c r="M12" s="21"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3" t="s">
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
+      <c r="B17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
+      <c r="B18" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="3"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-    </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="8" t="s">
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M35" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="49">
+    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17">
         <v>1</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C36" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="55" t="s">
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M35" s="48">
+      <c r="M36" s="16">
         <v>42866</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="49">
+    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17">
         <v>2</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="55" t="s">
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="M36" s="48">
+      <c r="M37" s="16">
         <v>42871</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="49">
+    <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="17">
         <v>3</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52" t="s">
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="55" t="s">
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M37" s="55"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M38" s="18"/>
+    </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2216,7 @@
     <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2200,8 +2246,9 @@
     <row r="77" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="42">
     <mergeCell ref="D1:N1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="D3:F3"/>
@@ -2218,7 +2265,13 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B22:M31"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B18:M20"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
@@ -2227,22 +2280,20 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B17:M19"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:K38"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:K35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F36:K36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="B23:M32"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="- Present_x000a_- Absent_x000a_- Late_x000a_" sqref="L8:M12 JH8:JI12 TD8:TE12 ACZ8:ADA12 AMV8:AMW12 AWR8:AWS12 BGN8:BGO12 BQJ8:BQK12 CAF8:CAG12 CKB8:CKC12 CTX8:CTY12 DDT8:DDU12 DNP8:DNQ12 DXL8:DXM12 EHH8:EHI12 ERD8:ERE12 FAZ8:FBA12 FKV8:FKW12 FUR8:FUS12 GEN8:GEO12 GOJ8:GOK12 GYF8:GYG12 HIB8:HIC12 HRX8:HRY12 IBT8:IBU12 ILP8:ILQ12 IVL8:IVM12 JFH8:JFI12 JPD8:JPE12 JYZ8:JZA12 KIV8:KIW12 KSR8:KSS12 LCN8:LCO12 LMJ8:LMK12 LWF8:LWG12 MGB8:MGC12 MPX8:MPY12 MZT8:MZU12 NJP8:NJQ12 NTL8:NTM12 ODH8:ODI12 OND8:ONE12 OWZ8:OXA12 PGV8:PGW12 PQR8:PQS12 QAN8:QAO12 QKJ8:QKK12 QUF8:QUG12 REB8:REC12 RNX8:RNY12 RXT8:RXU12 SHP8:SHQ12 SRL8:SRM12 TBH8:TBI12 TLD8:TLE12 TUZ8:TVA12 UEV8:UEW12 UOR8:UOS12 UYN8:UYO12 VIJ8:VIK12 VSF8:VSG12 WCB8:WCC12 WLX8:WLY12 WVT8:WVU12 L65544:M65548 JH65544:JI65548 TD65544:TE65548 ACZ65544:ADA65548 AMV65544:AMW65548 AWR65544:AWS65548 BGN65544:BGO65548 BQJ65544:BQK65548 CAF65544:CAG65548 CKB65544:CKC65548 CTX65544:CTY65548 DDT65544:DDU65548 DNP65544:DNQ65548 DXL65544:DXM65548 EHH65544:EHI65548 ERD65544:ERE65548 FAZ65544:FBA65548 FKV65544:FKW65548 FUR65544:FUS65548 GEN65544:GEO65548 GOJ65544:GOK65548 GYF65544:GYG65548 HIB65544:HIC65548 HRX65544:HRY65548 IBT65544:IBU65548 ILP65544:ILQ65548 IVL65544:IVM65548 JFH65544:JFI65548 JPD65544:JPE65548 JYZ65544:JZA65548 KIV65544:KIW65548 KSR65544:KSS65548 LCN65544:LCO65548 LMJ65544:LMK65548 LWF65544:LWG65548 MGB65544:MGC65548 MPX65544:MPY65548 MZT65544:MZU65548 NJP65544:NJQ65548 NTL65544:NTM65548 ODH65544:ODI65548 OND65544:ONE65548 OWZ65544:OXA65548 PGV65544:PGW65548 PQR65544:PQS65548 QAN65544:QAO65548 QKJ65544:QKK65548 QUF65544:QUG65548 REB65544:REC65548 RNX65544:RNY65548 RXT65544:RXU65548 SHP65544:SHQ65548 SRL65544:SRM65548 TBH65544:TBI65548 TLD65544:TLE65548 TUZ65544:TVA65548 UEV65544:UEW65548 UOR65544:UOS65548 UYN65544:UYO65548 VIJ65544:VIK65548 VSF65544:VSG65548 WCB65544:WCC65548 WLX65544:WLY65548 WVT65544:WVU65548 L131080:M131084 JH131080:JI131084 TD131080:TE131084 ACZ131080:ADA131084 AMV131080:AMW131084 AWR131080:AWS131084 BGN131080:BGO131084 BQJ131080:BQK131084 CAF131080:CAG131084 CKB131080:CKC131084 CTX131080:CTY131084 DDT131080:DDU131084 DNP131080:DNQ131084 DXL131080:DXM131084 EHH131080:EHI131084 ERD131080:ERE131084 FAZ131080:FBA131084 FKV131080:FKW131084 FUR131080:FUS131084 GEN131080:GEO131084 GOJ131080:GOK131084 GYF131080:GYG131084 HIB131080:HIC131084 HRX131080:HRY131084 IBT131080:IBU131084 ILP131080:ILQ131084 IVL131080:IVM131084 JFH131080:JFI131084 JPD131080:JPE131084 JYZ131080:JZA131084 KIV131080:KIW131084 KSR131080:KSS131084 LCN131080:LCO131084 LMJ131080:LMK131084 LWF131080:LWG131084 MGB131080:MGC131084 MPX131080:MPY131084 MZT131080:MZU131084 NJP131080:NJQ131084 NTL131080:NTM131084 ODH131080:ODI131084 OND131080:ONE131084 OWZ131080:OXA131084 PGV131080:PGW131084 PQR131080:PQS131084 QAN131080:QAO131084 QKJ131080:QKK131084 QUF131080:QUG131084 REB131080:REC131084 RNX131080:RNY131084 RXT131080:RXU131084 SHP131080:SHQ131084 SRL131080:SRM131084 TBH131080:TBI131084 TLD131080:TLE131084 TUZ131080:TVA131084 UEV131080:UEW131084 UOR131080:UOS131084 UYN131080:UYO131084 VIJ131080:VIK131084 VSF131080:VSG131084 WCB131080:WCC131084 WLX131080:WLY131084 WVT131080:WVU131084 L196616:M196620 JH196616:JI196620 TD196616:TE196620 ACZ196616:ADA196620 AMV196616:AMW196620 AWR196616:AWS196620 BGN196616:BGO196620 BQJ196616:BQK196620 CAF196616:CAG196620 CKB196616:CKC196620 CTX196616:CTY196620 DDT196616:DDU196620 DNP196616:DNQ196620 DXL196616:DXM196620 EHH196616:EHI196620 ERD196616:ERE196620 FAZ196616:FBA196620 FKV196616:FKW196620 FUR196616:FUS196620 GEN196616:GEO196620 GOJ196616:GOK196620 GYF196616:GYG196620 HIB196616:HIC196620 HRX196616:HRY196620 IBT196616:IBU196620 ILP196616:ILQ196620 IVL196616:IVM196620 JFH196616:JFI196620 JPD196616:JPE196620 JYZ196616:JZA196620 KIV196616:KIW196620 KSR196616:KSS196620 LCN196616:LCO196620 LMJ196616:LMK196620 LWF196616:LWG196620 MGB196616:MGC196620 MPX196616:MPY196620 MZT196616:MZU196620 NJP196616:NJQ196620 NTL196616:NTM196620 ODH196616:ODI196620 OND196616:ONE196620 OWZ196616:OXA196620 PGV196616:PGW196620 PQR196616:PQS196620 QAN196616:QAO196620 QKJ196616:QKK196620 QUF196616:QUG196620 REB196616:REC196620 RNX196616:RNY196620 RXT196616:RXU196620 SHP196616:SHQ196620 SRL196616:SRM196620 TBH196616:TBI196620 TLD196616:TLE196620 TUZ196616:TVA196620 UEV196616:UEW196620 UOR196616:UOS196620 UYN196616:UYO196620 VIJ196616:VIK196620 VSF196616:VSG196620 WCB196616:WCC196620 WLX196616:WLY196620 WVT196616:WVU196620 L262152:M262156 JH262152:JI262156 TD262152:TE262156 ACZ262152:ADA262156 AMV262152:AMW262156 AWR262152:AWS262156 BGN262152:BGO262156 BQJ262152:BQK262156 CAF262152:CAG262156 CKB262152:CKC262156 CTX262152:CTY262156 DDT262152:DDU262156 DNP262152:DNQ262156 DXL262152:DXM262156 EHH262152:EHI262156 ERD262152:ERE262156 FAZ262152:FBA262156 FKV262152:FKW262156 FUR262152:FUS262156 GEN262152:GEO262156 GOJ262152:GOK262156 GYF262152:GYG262156 HIB262152:HIC262156 HRX262152:HRY262156 IBT262152:IBU262156 ILP262152:ILQ262156 IVL262152:IVM262156 JFH262152:JFI262156 JPD262152:JPE262156 JYZ262152:JZA262156 KIV262152:KIW262156 KSR262152:KSS262156 LCN262152:LCO262156 LMJ262152:LMK262156 LWF262152:LWG262156 MGB262152:MGC262156 MPX262152:MPY262156 MZT262152:MZU262156 NJP262152:NJQ262156 NTL262152:NTM262156 ODH262152:ODI262156 OND262152:ONE262156 OWZ262152:OXA262156 PGV262152:PGW262156 PQR262152:PQS262156 QAN262152:QAO262156 QKJ262152:QKK262156 QUF262152:QUG262156 REB262152:REC262156 RNX262152:RNY262156 RXT262152:RXU262156 SHP262152:SHQ262156 SRL262152:SRM262156 TBH262152:TBI262156 TLD262152:TLE262156 TUZ262152:TVA262156 UEV262152:UEW262156 UOR262152:UOS262156 UYN262152:UYO262156 VIJ262152:VIK262156 VSF262152:VSG262156 WCB262152:WCC262156 WLX262152:WLY262156 WVT262152:WVU262156 L327688:M327692 JH327688:JI327692 TD327688:TE327692 ACZ327688:ADA327692 AMV327688:AMW327692 AWR327688:AWS327692 BGN327688:BGO327692 BQJ327688:BQK327692 CAF327688:CAG327692 CKB327688:CKC327692 CTX327688:CTY327692 DDT327688:DDU327692 DNP327688:DNQ327692 DXL327688:DXM327692 EHH327688:EHI327692 ERD327688:ERE327692 FAZ327688:FBA327692 FKV327688:FKW327692 FUR327688:FUS327692 GEN327688:GEO327692 GOJ327688:GOK327692 GYF327688:GYG327692 HIB327688:HIC327692 HRX327688:HRY327692 IBT327688:IBU327692 ILP327688:ILQ327692 IVL327688:IVM327692 JFH327688:JFI327692 JPD327688:JPE327692 JYZ327688:JZA327692 KIV327688:KIW327692 KSR327688:KSS327692 LCN327688:LCO327692 LMJ327688:LMK327692 LWF327688:LWG327692 MGB327688:MGC327692 MPX327688:MPY327692 MZT327688:MZU327692 NJP327688:NJQ327692 NTL327688:NTM327692 ODH327688:ODI327692 OND327688:ONE327692 OWZ327688:OXA327692 PGV327688:PGW327692 PQR327688:PQS327692 QAN327688:QAO327692 QKJ327688:QKK327692 QUF327688:QUG327692 REB327688:REC327692 RNX327688:RNY327692 RXT327688:RXU327692 SHP327688:SHQ327692 SRL327688:SRM327692 TBH327688:TBI327692 TLD327688:TLE327692 TUZ327688:TVA327692 UEV327688:UEW327692 UOR327688:UOS327692 UYN327688:UYO327692 VIJ327688:VIK327692 VSF327688:VSG327692 WCB327688:WCC327692 WLX327688:WLY327692 WVT327688:WVU327692 L393224:M393228 JH393224:JI393228 TD393224:TE393228 ACZ393224:ADA393228 AMV393224:AMW393228 AWR393224:AWS393228 BGN393224:BGO393228 BQJ393224:BQK393228 CAF393224:CAG393228 CKB393224:CKC393228 CTX393224:CTY393228 DDT393224:DDU393228 DNP393224:DNQ393228 DXL393224:DXM393228 EHH393224:EHI393228 ERD393224:ERE393228 FAZ393224:FBA393228 FKV393224:FKW393228 FUR393224:FUS393228 GEN393224:GEO393228 GOJ393224:GOK393228 GYF393224:GYG393228 HIB393224:HIC393228 HRX393224:HRY393228 IBT393224:IBU393228 ILP393224:ILQ393228 IVL393224:IVM393228 JFH393224:JFI393228 JPD393224:JPE393228 JYZ393224:JZA393228 KIV393224:KIW393228 KSR393224:KSS393228 LCN393224:LCO393228 LMJ393224:LMK393228 LWF393224:LWG393228 MGB393224:MGC393228 MPX393224:MPY393228 MZT393224:MZU393228 NJP393224:NJQ393228 NTL393224:NTM393228 ODH393224:ODI393228 OND393224:ONE393228 OWZ393224:OXA393228 PGV393224:PGW393228 PQR393224:PQS393228 QAN393224:QAO393228 QKJ393224:QKK393228 QUF393224:QUG393228 REB393224:REC393228 RNX393224:RNY393228 RXT393224:RXU393228 SHP393224:SHQ393228 SRL393224:SRM393228 TBH393224:TBI393228 TLD393224:TLE393228 TUZ393224:TVA393228 UEV393224:UEW393228 UOR393224:UOS393228 UYN393224:UYO393228 VIJ393224:VIK393228 VSF393224:VSG393228 WCB393224:WCC393228 WLX393224:WLY393228 WVT393224:WVU393228 L458760:M458764 JH458760:JI458764 TD458760:TE458764 ACZ458760:ADA458764 AMV458760:AMW458764 AWR458760:AWS458764 BGN458760:BGO458764 BQJ458760:BQK458764 CAF458760:CAG458764 CKB458760:CKC458764 CTX458760:CTY458764 DDT458760:DDU458764 DNP458760:DNQ458764 DXL458760:DXM458764 EHH458760:EHI458764 ERD458760:ERE458764 FAZ458760:FBA458764 FKV458760:FKW458764 FUR458760:FUS458764 GEN458760:GEO458764 GOJ458760:GOK458764 GYF458760:GYG458764 HIB458760:HIC458764 HRX458760:HRY458764 IBT458760:IBU458764 ILP458760:ILQ458764 IVL458760:IVM458764 JFH458760:JFI458764 JPD458760:JPE458764 JYZ458760:JZA458764 KIV458760:KIW458764 KSR458760:KSS458764 LCN458760:LCO458764 LMJ458760:LMK458764 LWF458760:LWG458764 MGB458760:MGC458764 MPX458760:MPY458764 MZT458760:MZU458764 NJP458760:NJQ458764 NTL458760:NTM458764 ODH458760:ODI458764 OND458760:ONE458764 OWZ458760:OXA458764 PGV458760:PGW458764 PQR458760:PQS458764 QAN458760:QAO458764 QKJ458760:QKK458764 QUF458760:QUG458764 REB458760:REC458764 RNX458760:RNY458764 RXT458760:RXU458764 SHP458760:SHQ458764 SRL458760:SRM458764 TBH458760:TBI458764 TLD458760:TLE458764 TUZ458760:TVA458764 UEV458760:UEW458764 UOR458760:UOS458764 UYN458760:UYO458764 VIJ458760:VIK458764 VSF458760:VSG458764 WCB458760:WCC458764 WLX458760:WLY458764 WVT458760:WVU458764 L524296:M524300 JH524296:JI524300 TD524296:TE524300 ACZ524296:ADA524300 AMV524296:AMW524300 AWR524296:AWS524300 BGN524296:BGO524300 BQJ524296:BQK524300 CAF524296:CAG524300 CKB524296:CKC524300 CTX524296:CTY524300 DDT524296:DDU524300 DNP524296:DNQ524300 DXL524296:DXM524300 EHH524296:EHI524300 ERD524296:ERE524300 FAZ524296:FBA524300 FKV524296:FKW524300 FUR524296:FUS524300 GEN524296:GEO524300 GOJ524296:GOK524300 GYF524296:GYG524300 HIB524296:HIC524300 HRX524296:HRY524300 IBT524296:IBU524300 ILP524296:ILQ524300 IVL524296:IVM524300 JFH524296:JFI524300 JPD524296:JPE524300 JYZ524296:JZA524300 KIV524296:KIW524300 KSR524296:KSS524300 LCN524296:LCO524300 LMJ524296:LMK524300 LWF524296:LWG524300 MGB524296:MGC524300 MPX524296:MPY524300 MZT524296:MZU524300 NJP524296:NJQ524300 NTL524296:NTM524300 ODH524296:ODI524300 OND524296:ONE524300 OWZ524296:OXA524300 PGV524296:PGW524300 PQR524296:PQS524300 QAN524296:QAO524300 QKJ524296:QKK524300 QUF524296:QUG524300 REB524296:REC524300 RNX524296:RNY524300 RXT524296:RXU524300 SHP524296:SHQ524300 SRL524296:SRM524300 TBH524296:TBI524300 TLD524296:TLE524300 TUZ524296:TVA524300 UEV524296:UEW524300 UOR524296:UOS524300 UYN524296:UYO524300 VIJ524296:VIK524300 VSF524296:VSG524300 WCB524296:WCC524300 WLX524296:WLY524300 WVT524296:WVU524300 L589832:M589836 JH589832:JI589836 TD589832:TE589836 ACZ589832:ADA589836 AMV589832:AMW589836 AWR589832:AWS589836 BGN589832:BGO589836 BQJ589832:BQK589836 CAF589832:CAG589836 CKB589832:CKC589836 CTX589832:CTY589836 DDT589832:DDU589836 DNP589832:DNQ589836 DXL589832:DXM589836 EHH589832:EHI589836 ERD589832:ERE589836 FAZ589832:FBA589836 FKV589832:FKW589836 FUR589832:FUS589836 GEN589832:GEO589836 GOJ589832:GOK589836 GYF589832:GYG589836 HIB589832:HIC589836 HRX589832:HRY589836 IBT589832:IBU589836 ILP589832:ILQ589836 IVL589832:IVM589836 JFH589832:JFI589836 JPD589832:JPE589836 JYZ589832:JZA589836 KIV589832:KIW589836 KSR589832:KSS589836 LCN589832:LCO589836 LMJ589832:LMK589836 LWF589832:LWG589836 MGB589832:MGC589836 MPX589832:MPY589836 MZT589832:MZU589836 NJP589832:NJQ589836 NTL589832:NTM589836 ODH589832:ODI589836 OND589832:ONE589836 OWZ589832:OXA589836 PGV589832:PGW589836 PQR589832:PQS589836 QAN589832:QAO589836 QKJ589832:QKK589836 QUF589832:QUG589836 REB589832:REC589836 RNX589832:RNY589836 RXT589832:RXU589836 SHP589832:SHQ589836 SRL589832:SRM589836 TBH589832:TBI589836 TLD589832:TLE589836 TUZ589832:TVA589836 UEV589832:UEW589836 UOR589832:UOS589836 UYN589832:UYO589836 VIJ589832:VIK589836 VSF589832:VSG589836 WCB589832:WCC589836 WLX589832:WLY589836 WVT589832:WVU589836 L655368:M655372 JH655368:JI655372 TD655368:TE655372 ACZ655368:ADA655372 AMV655368:AMW655372 AWR655368:AWS655372 BGN655368:BGO655372 BQJ655368:BQK655372 CAF655368:CAG655372 CKB655368:CKC655372 CTX655368:CTY655372 DDT655368:DDU655372 DNP655368:DNQ655372 DXL655368:DXM655372 EHH655368:EHI655372 ERD655368:ERE655372 FAZ655368:FBA655372 FKV655368:FKW655372 FUR655368:FUS655372 GEN655368:GEO655372 GOJ655368:GOK655372 GYF655368:GYG655372 HIB655368:HIC655372 HRX655368:HRY655372 IBT655368:IBU655372 ILP655368:ILQ655372 IVL655368:IVM655372 JFH655368:JFI655372 JPD655368:JPE655372 JYZ655368:JZA655372 KIV655368:KIW655372 KSR655368:KSS655372 LCN655368:LCO655372 LMJ655368:LMK655372 LWF655368:LWG655372 MGB655368:MGC655372 MPX655368:MPY655372 MZT655368:MZU655372 NJP655368:NJQ655372 NTL655368:NTM655372 ODH655368:ODI655372 OND655368:ONE655372 OWZ655368:OXA655372 PGV655368:PGW655372 PQR655368:PQS655372 QAN655368:QAO655372 QKJ655368:QKK655372 QUF655368:QUG655372 REB655368:REC655372 RNX655368:RNY655372 RXT655368:RXU655372 SHP655368:SHQ655372 SRL655368:SRM655372 TBH655368:TBI655372 TLD655368:TLE655372 TUZ655368:TVA655372 UEV655368:UEW655372 UOR655368:UOS655372 UYN655368:UYO655372 VIJ655368:VIK655372 VSF655368:VSG655372 WCB655368:WCC655372 WLX655368:WLY655372 WVT655368:WVU655372 L720904:M720908 JH720904:JI720908 TD720904:TE720908 ACZ720904:ADA720908 AMV720904:AMW720908 AWR720904:AWS720908 BGN720904:BGO720908 BQJ720904:BQK720908 CAF720904:CAG720908 CKB720904:CKC720908 CTX720904:CTY720908 DDT720904:DDU720908 DNP720904:DNQ720908 DXL720904:DXM720908 EHH720904:EHI720908 ERD720904:ERE720908 FAZ720904:FBA720908 FKV720904:FKW720908 FUR720904:FUS720908 GEN720904:GEO720908 GOJ720904:GOK720908 GYF720904:GYG720908 HIB720904:HIC720908 HRX720904:HRY720908 IBT720904:IBU720908 ILP720904:ILQ720908 IVL720904:IVM720908 JFH720904:JFI720908 JPD720904:JPE720908 JYZ720904:JZA720908 KIV720904:KIW720908 KSR720904:KSS720908 LCN720904:LCO720908 LMJ720904:LMK720908 LWF720904:LWG720908 MGB720904:MGC720908 MPX720904:MPY720908 MZT720904:MZU720908 NJP720904:NJQ720908 NTL720904:NTM720908 ODH720904:ODI720908 OND720904:ONE720908 OWZ720904:OXA720908 PGV720904:PGW720908 PQR720904:PQS720908 QAN720904:QAO720908 QKJ720904:QKK720908 QUF720904:QUG720908 REB720904:REC720908 RNX720904:RNY720908 RXT720904:RXU720908 SHP720904:SHQ720908 SRL720904:SRM720908 TBH720904:TBI720908 TLD720904:TLE720908 TUZ720904:TVA720908 UEV720904:UEW720908 UOR720904:UOS720908 UYN720904:UYO720908 VIJ720904:VIK720908 VSF720904:VSG720908 WCB720904:WCC720908 WLX720904:WLY720908 WVT720904:WVU720908 L786440:M786444 JH786440:JI786444 TD786440:TE786444 ACZ786440:ADA786444 AMV786440:AMW786444 AWR786440:AWS786444 BGN786440:BGO786444 BQJ786440:BQK786444 CAF786440:CAG786444 CKB786440:CKC786444 CTX786440:CTY786444 DDT786440:DDU786444 DNP786440:DNQ786444 DXL786440:DXM786444 EHH786440:EHI786444 ERD786440:ERE786444 FAZ786440:FBA786444 FKV786440:FKW786444 FUR786440:FUS786444 GEN786440:GEO786444 GOJ786440:GOK786444 GYF786440:GYG786444 HIB786440:HIC786444 HRX786440:HRY786444 IBT786440:IBU786444 ILP786440:ILQ786444 IVL786440:IVM786444 JFH786440:JFI786444 JPD786440:JPE786444 JYZ786440:JZA786444 KIV786440:KIW786444 KSR786440:KSS786444 LCN786440:LCO786444 LMJ786440:LMK786444 LWF786440:LWG786444 MGB786440:MGC786444 MPX786440:MPY786444 MZT786440:MZU786444 NJP786440:NJQ786444 NTL786440:NTM786444 ODH786440:ODI786444 OND786440:ONE786444 OWZ786440:OXA786444 PGV786440:PGW786444 PQR786440:PQS786444 QAN786440:QAO786444 QKJ786440:QKK786444 QUF786440:QUG786444 REB786440:REC786444 RNX786440:RNY786444 RXT786440:RXU786444 SHP786440:SHQ786444 SRL786440:SRM786444 TBH786440:TBI786444 TLD786440:TLE786444 TUZ786440:TVA786444 UEV786440:UEW786444 UOR786440:UOS786444 UYN786440:UYO786444 VIJ786440:VIK786444 VSF786440:VSG786444 WCB786440:WCC786444 WLX786440:WLY786444 WVT786440:WVU786444 L851976:M851980 JH851976:JI851980 TD851976:TE851980 ACZ851976:ADA851980 AMV851976:AMW851980 AWR851976:AWS851980 BGN851976:BGO851980 BQJ851976:BQK851980 CAF851976:CAG851980 CKB851976:CKC851980 CTX851976:CTY851980 DDT851976:DDU851980 DNP851976:DNQ851980 DXL851976:DXM851980 EHH851976:EHI851980 ERD851976:ERE851980 FAZ851976:FBA851980 FKV851976:FKW851980 FUR851976:FUS851980 GEN851976:GEO851980 GOJ851976:GOK851980 GYF851976:GYG851980 HIB851976:HIC851980 HRX851976:HRY851980 IBT851976:IBU851980 ILP851976:ILQ851980 IVL851976:IVM851980 JFH851976:JFI851980 JPD851976:JPE851980 JYZ851976:JZA851980 KIV851976:KIW851980 KSR851976:KSS851980 LCN851976:LCO851980 LMJ851976:LMK851980 LWF851976:LWG851980 MGB851976:MGC851980 MPX851976:MPY851980 MZT851976:MZU851980 NJP851976:NJQ851980 NTL851976:NTM851980 ODH851976:ODI851980 OND851976:ONE851980 OWZ851976:OXA851980 PGV851976:PGW851980 PQR851976:PQS851980 QAN851976:QAO851980 QKJ851976:QKK851980 QUF851976:QUG851980 REB851976:REC851980 RNX851976:RNY851980 RXT851976:RXU851980 SHP851976:SHQ851980 SRL851976:SRM851980 TBH851976:TBI851980 TLD851976:TLE851980 TUZ851976:TVA851980 UEV851976:UEW851980 UOR851976:UOS851980 UYN851976:UYO851980 VIJ851976:VIK851980 VSF851976:VSG851980 WCB851976:WCC851980 WLX851976:WLY851980 WVT851976:WVU851980 L917512:M917516 JH917512:JI917516 TD917512:TE917516 ACZ917512:ADA917516 AMV917512:AMW917516 AWR917512:AWS917516 BGN917512:BGO917516 BQJ917512:BQK917516 CAF917512:CAG917516 CKB917512:CKC917516 CTX917512:CTY917516 DDT917512:DDU917516 DNP917512:DNQ917516 DXL917512:DXM917516 EHH917512:EHI917516 ERD917512:ERE917516 FAZ917512:FBA917516 FKV917512:FKW917516 FUR917512:FUS917516 GEN917512:GEO917516 GOJ917512:GOK917516 GYF917512:GYG917516 HIB917512:HIC917516 HRX917512:HRY917516 IBT917512:IBU917516 ILP917512:ILQ917516 IVL917512:IVM917516 JFH917512:JFI917516 JPD917512:JPE917516 JYZ917512:JZA917516 KIV917512:KIW917516 KSR917512:KSS917516 LCN917512:LCO917516 LMJ917512:LMK917516 LWF917512:LWG917516 MGB917512:MGC917516 MPX917512:MPY917516 MZT917512:MZU917516 NJP917512:NJQ917516 NTL917512:NTM917516 ODH917512:ODI917516 OND917512:ONE917516 OWZ917512:OXA917516 PGV917512:PGW917516 PQR917512:PQS917516 QAN917512:QAO917516 QKJ917512:QKK917516 QUF917512:QUG917516 REB917512:REC917516 RNX917512:RNY917516 RXT917512:RXU917516 SHP917512:SHQ917516 SRL917512:SRM917516 TBH917512:TBI917516 TLD917512:TLE917516 TUZ917512:TVA917516 UEV917512:UEW917516 UOR917512:UOS917516 UYN917512:UYO917516 VIJ917512:VIK917516 VSF917512:VSG917516 WCB917512:WCC917516 WLX917512:WLY917516 WVT917512:WVU917516 L983048:M983052 JH983048:JI983052 TD983048:TE983052 ACZ983048:ADA983052 AMV983048:AMW983052 AWR983048:AWS983052 BGN983048:BGO983052 BQJ983048:BQK983052 CAF983048:CAG983052 CKB983048:CKC983052 CTX983048:CTY983052 DDT983048:DDU983052 DNP983048:DNQ983052 DXL983048:DXM983052 EHH983048:EHI983052 ERD983048:ERE983052 FAZ983048:FBA983052 FKV983048:FKW983052 FUR983048:FUS983052 GEN983048:GEO983052 GOJ983048:GOK983052 GYF983048:GYG983052 HIB983048:HIC983052 HRX983048:HRY983052 IBT983048:IBU983052 ILP983048:ILQ983052 IVL983048:IVM983052 JFH983048:JFI983052 JPD983048:JPE983052 JYZ983048:JZA983052 KIV983048:KIW983052 KSR983048:KSS983052 LCN983048:LCO983052 LMJ983048:LMK983052 LWF983048:LWG983052 MGB983048:MGC983052 MPX983048:MPY983052 MZT983048:MZU983052 NJP983048:NJQ983052 NTL983048:NTM983052 ODH983048:ODI983052 OND983048:ONE983052 OWZ983048:OXA983052 PGV983048:PGW983052 PQR983048:PQS983052 QAN983048:QAO983052 QKJ983048:QKK983052 QUF983048:QUG983052 REB983048:REC983052 RNX983048:RNY983052 RXT983048:RXU983052 SHP983048:SHQ983052 SRL983048:SRM983052 TBH983048:TBI983052 TLD983048:TLE983052 TUZ983048:TVA983052 UEV983048:UEW983052 UOR983048:UOS983052 UYN983048:UYO983052 VIJ983048:VIK983052 VSF983048:VSG983052 WCB983048:WCC983052 WLX983048:WLY983052 WVT983048:WVU983052">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="- Present_x000a_- Absent_x000a_- Late_x000a_" sqref="L8:M14 JH8:JI14 TD8:TE14 ACZ8:ADA14 AMV8:AMW14 AWR8:AWS14 BGN8:BGO14 BQJ8:BQK14 CAF8:CAG14 CKB8:CKC14 CTX8:CTY14 DDT8:DDU14 DNP8:DNQ14 DXL8:DXM14 EHH8:EHI14 ERD8:ERE14 FAZ8:FBA14 FKV8:FKW14 FUR8:FUS14 GEN8:GEO14 GOJ8:GOK14 GYF8:GYG14 HIB8:HIC14 HRX8:HRY14 IBT8:IBU14 ILP8:ILQ14 IVL8:IVM14 JFH8:JFI14 JPD8:JPE14 JYZ8:JZA14 KIV8:KIW14 KSR8:KSS14 LCN8:LCO14 LMJ8:LMK14 LWF8:LWG14 MGB8:MGC14 MPX8:MPY14 MZT8:MZU14 NJP8:NJQ14 NTL8:NTM14 ODH8:ODI14 OND8:ONE14 OWZ8:OXA14 PGV8:PGW14 PQR8:PQS14 QAN8:QAO14 QKJ8:QKK14 QUF8:QUG14 REB8:REC14 RNX8:RNY14 RXT8:RXU14 SHP8:SHQ14 SRL8:SRM14 TBH8:TBI14 TLD8:TLE14 TUZ8:TVA14 UEV8:UEW14 UOR8:UOS14 UYN8:UYO14 VIJ8:VIK14 VSF8:VSG14 WCB8:WCC14 WLX8:WLY14 WVT8:WVU14 L65545:M65549 JH65545:JI65549 TD65545:TE65549 ACZ65545:ADA65549 AMV65545:AMW65549 AWR65545:AWS65549 BGN65545:BGO65549 BQJ65545:BQK65549 CAF65545:CAG65549 CKB65545:CKC65549 CTX65545:CTY65549 DDT65545:DDU65549 DNP65545:DNQ65549 DXL65545:DXM65549 EHH65545:EHI65549 ERD65545:ERE65549 FAZ65545:FBA65549 FKV65545:FKW65549 FUR65545:FUS65549 GEN65545:GEO65549 GOJ65545:GOK65549 GYF65545:GYG65549 HIB65545:HIC65549 HRX65545:HRY65549 IBT65545:IBU65549 ILP65545:ILQ65549 IVL65545:IVM65549 JFH65545:JFI65549 JPD65545:JPE65549 JYZ65545:JZA65549 KIV65545:KIW65549 KSR65545:KSS65549 LCN65545:LCO65549 LMJ65545:LMK65549 LWF65545:LWG65549 MGB65545:MGC65549 MPX65545:MPY65549 MZT65545:MZU65549 NJP65545:NJQ65549 NTL65545:NTM65549 ODH65545:ODI65549 OND65545:ONE65549 OWZ65545:OXA65549 PGV65545:PGW65549 PQR65545:PQS65549 QAN65545:QAO65549 QKJ65545:QKK65549 QUF65545:QUG65549 REB65545:REC65549 RNX65545:RNY65549 RXT65545:RXU65549 SHP65545:SHQ65549 SRL65545:SRM65549 TBH65545:TBI65549 TLD65545:TLE65549 TUZ65545:TVA65549 UEV65545:UEW65549 UOR65545:UOS65549 UYN65545:UYO65549 VIJ65545:VIK65549 VSF65545:VSG65549 WCB65545:WCC65549 WLX65545:WLY65549 WVT65545:WVU65549 L131081:M131085 JH131081:JI131085 TD131081:TE131085 ACZ131081:ADA131085 AMV131081:AMW131085 AWR131081:AWS131085 BGN131081:BGO131085 BQJ131081:BQK131085 CAF131081:CAG131085 CKB131081:CKC131085 CTX131081:CTY131085 DDT131081:DDU131085 DNP131081:DNQ131085 DXL131081:DXM131085 EHH131081:EHI131085 ERD131081:ERE131085 FAZ131081:FBA131085 FKV131081:FKW131085 FUR131081:FUS131085 GEN131081:GEO131085 GOJ131081:GOK131085 GYF131081:GYG131085 HIB131081:HIC131085 HRX131081:HRY131085 IBT131081:IBU131085 ILP131081:ILQ131085 IVL131081:IVM131085 JFH131081:JFI131085 JPD131081:JPE131085 JYZ131081:JZA131085 KIV131081:KIW131085 KSR131081:KSS131085 LCN131081:LCO131085 LMJ131081:LMK131085 LWF131081:LWG131085 MGB131081:MGC131085 MPX131081:MPY131085 MZT131081:MZU131085 NJP131081:NJQ131085 NTL131081:NTM131085 ODH131081:ODI131085 OND131081:ONE131085 OWZ131081:OXA131085 PGV131081:PGW131085 PQR131081:PQS131085 QAN131081:QAO131085 QKJ131081:QKK131085 QUF131081:QUG131085 REB131081:REC131085 RNX131081:RNY131085 RXT131081:RXU131085 SHP131081:SHQ131085 SRL131081:SRM131085 TBH131081:TBI131085 TLD131081:TLE131085 TUZ131081:TVA131085 UEV131081:UEW131085 UOR131081:UOS131085 UYN131081:UYO131085 VIJ131081:VIK131085 VSF131081:VSG131085 WCB131081:WCC131085 WLX131081:WLY131085 WVT131081:WVU131085 L196617:M196621 JH196617:JI196621 TD196617:TE196621 ACZ196617:ADA196621 AMV196617:AMW196621 AWR196617:AWS196621 BGN196617:BGO196621 BQJ196617:BQK196621 CAF196617:CAG196621 CKB196617:CKC196621 CTX196617:CTY196621 DDT196617:DDU196621 DNP196617:DNQ196621 DXL196617:DXM196621 EHH196617:EHI196621 ERD196617:ERE196621 FAZ196617:FBA196621 FKV196617:FKW196621 FUR196617:FUS196621 GEN196617:GEO196621 GOJ196617:GOK196621 GYF196617:GYG196621 HIB196617:HIC196621 HRX196617:HRY196621 IBT196617:IBU196621 ILP196617:ILQ196621 IVL196617:IVM196621 JFH196617:JFI196621 JPD196617:JPE196621 JYZ196617:JZA196621 KIV196617:KIW196621 KSR196617:KSS196621 LCN196617:LCO196621 LMJ196617:LMK196621 LWF196617:LWG196621 MGB196617:MGC196621 MPX196617:MPY196621 MZT196617:MZU196621 NJP196617:NJQ196621 NTL196617:NTM196621 ODH196617:ODI196621 OND196617:ONE196621 OWZ196617:OXA196621 PGV196617:PGW196621 PQR196617:PQS196621 QAN196617:QAO196621 QKJ196617:QKK196621 QUF196617:QUG196621 REB196617:REC196621 RNX196617:RNY196621 RXT196617:RXU196621 SHP196617:SHQ196621 SRL196617:SRM196621 TBH196617:TBI196621 TLD196617:TLE196621 TUZ196617:TVA196621 UEV196617:UEW196621 UOR196617:UOS196621 UYN196617:UYO196621 VIJ196617:VIK196621 VSF196617:VSG196621 WCB196617:WCC196621 WLX196617:WLY196621 WVT196617:WVU196621 L262153:M262157 JH262153:JI262157 TD262153:TE262157 ACZ262153:ADA262157 AMV262153:AMW262157 AWR262153:AWS262157 BGN262153:BGO262157 BQJ262153:BQK262157 CAF262153:CAG262157 CKB262153:CKC262157 CTX262153:CTY262157 DDT262153:DDU262157 DNP262153:DNQ262157 DXL262153:DXM262157 EHH262153:EHI262157 ERD262153:ERE262157 FAZ262153:FBA262157 FKV262153:FKW262157 FUR262153:FUS262157 GEN262153:GEO262157 GOJ262153:GOK262157 GYF262153:GYG262157 HIB262153:HIC262157 HRX262153:HRY262157 IBT262153:IBU262157 ILP262153:ILQ262157 IVL262153:IVM262157 JFH262153:JFI262157 JPD262153:JPE262157 JYZ262153:JZA262157 KIV262153:KIW262157 KSR262153:KSS262157 LCN262153:LCO262157 LMJ262153:LMK262157 LWF262153:LWG262157 MGB262153:MGC262157 MPX262153:MPY262157 MZT262153:MZU262157 NJP262153:NJQ262157 NTL262153:NTM262157 ODH262153:ODI262157 OND262153:ONE262157 OWZ262153:OXA262157 PGV262153:PGW262157 PQR262153:PQS262157 QAN262153:QAO262157 QKJ262153:QKK262157 QUF262153:QUG262157 REB262153:REC262157 RNX262153:RNY262157 RXT262153:RXU262157 SHP262153:SHQ262157 SRL262153:SRM262157 TBH262153:TBI262157 TLD262153:TLE262157 TUZ262153:TVA262157 UEV262153:UEW262157 UOR262153:UOS262157 UYN262153:UYO262157 VIJ262153:VIK262157 VSF262153:VSG262157 WCB262153:WCC262157 WLX262153:WLY262157 WVT262153:WVU262157 L327689:M327693 JH327689:JI327693 TD327689:TE327693 ACZ327689:ADA327693 AMV327689:AMW327693 AWR327689:AWS327693 BGN327689:BGO327693 BQJ327689:BQK327693 CAF327689:CAG327693 CKB327689:CKC327693 CTX327689:CTY327693 DDT327689:DDU327693 DNP327689:DNQ327693 DXL327689:DXM327693 EHH327689:EHI327693 ERD327689:ERE327693 FAZ327689:FBA327693 FKV327689:FKW327693 FUR327689:FUS327693 GEN327689:GEO327693 GOJ327689:GOK327693 GYF327689:GYG327693 HIB327689:HIC327693 HRX327689:HRY327693 IBT327689:IBU327693 ILP327689:ILQ327693 IVL327689:IVM327693 JFH327689:JFI327693 JPD327689:JPE327693 JYZ327689:JZA327693 KIV327689:KIW327693 KSR327689:KSS327693 LCN327689:LCO327693 LMJ327689:LMK327693 LWF327689:LWG327693 MGB327689:MGC327693 MPX327689:MPY327693 MZT327689:MZU327693 NJP327689:NJQ327693 NTL327689:NTM327693 ODH327689:ODI327693 OND327689:ONE327693 OWZ327689:OXA327693 PGV327689:PGW327693 PQR327689:PQS327693 QAN327689:QAO327693 QKJ327689:QKK327693 QUF327689:QUG327693 REB327689:REC327693 RNX327689:RNY327693 RXT327689:RXU327693 SHP327689:SHQ327693 SRL327689:SRM327693 TBH327689:TBI327693 TLD327689:TLE327693 TUZ327689:TVA327693 UEV327689:UEW327693 UOR327689:UOS327693 UYN327689:UYO327693 VIJ327689:VIK327693 VSF327689:VSG327693 WCB327689:WCC327693 WLX327689:WLY327693 WVT327689:WVU327693 L393225:M393229 JH393225:JI393229 TD393225:TE393229 ACZ393225:ADA393229 AMV393225:AMW393229 AWR393225:AWS393229 BGN393225:BGO393229 BQJ393225:BQK393229 CAF393225:CAG393229 CKB393225:CKC393229 CTX393225:CTY393229 DDT393225:DDU393229 DNP393225:DNQ393229 DXL393225:DXM393229 EHH393225:EHI393229 ERD393225:ERE393229 FAZ393225:FBA393229 FKV393225:FKW393229 FUR393225:FUS393229 GEN393225:GEO393229 GOJ393225:GOK393229 GYF393225:GYG393229 HIB393225:HIC393229 HRX393225:HRY393229 IBT393225:IBU393229 ILP393225:ILQ393229 IVL393225:IVM393229 JFH393225:JFI393229 JPD393225:JPE393229 JYZ393225:JZA393229 KIV393225:KIW393229 KSR393225:KSS393229 LCN393225:LCO393229 LMJ393225:LMK393229 LWF393225:LWG393229 MGB393225:MGC393229 MPX393225:MPY393229 MZT393225:MZU393229 NJP393225:NJQ393229 NTL393225:NTM393229 ODH393225:ODI393229 OND393225:ONE393229 OWZ393225:OXA393229 PGV393225:PGW393229 PQR393225:PQS393229 QAN393225:QAO393229 QKJ393225:QKK393229 QUF393225:QUG393229 REB393225:REC393229 RNX393225:RNY393229 RXT393225:RXU393229 SHP393225:SHQ393229 SRL393225:SRM393229 TBH393225:TBI393229 TLD393225:TLE393229 TUZ393225:TVA393229 UEV393225:UEW393229 UOR393225:UOS393229 UYN393225:UYO393229 VIJ393225:VIK393229 VSF393225:VSG393229 WCB393225:WCC393229 WLX393225:WLY393229 WVT393225:WVU393229 L458761:M458765 JH458761:JI458765 TD458761:TE458765 ACZ458761:ADA458765 AMV458761:AMW458765 AWR458761:AWS458765 BGN458761:BGO458765 BQJ458761:BQK458765 CAF458761:CAG458765 CKB458761:CKC458765 CTX458761:CTY458765 DDT458761:DDU458765 DNP458761:DNQ458765 DXL458761:DXM458765 EHH458761:EHI458765 ERD458761:ERE458765 FAZ458761:FBA458765 FKV458761:FKW458765 FUR458761:FUS458765 GEN458761:GEO458765 GOJ458761:GOK458765 GYF458761:GYG458765 HIB458761:HIC458765 HRX458761:HRY458765 IBT458761:IBU458765 ILP458761:ILQ458765 IVL458761:IVM458765 JFH458761:JFI458765 JPD458761:JPE458765 JYZ458761:JZA458765 KIV458761:KIW458765 KSR458761:KSS458765 LCN458761:LCO458765 LMJ458761:LMK458765 LWF458761:LWG458765 MGB458761:MGC458765 MPX458761:MPY458765 MZT458761:MZU458765 NJP458761:NJQ458765 NTL458761:NTM458765 ODH458761:ODI458765 OND458761:ONE458765 OWZ458761:OXA458765 PGV458761:PGW458765 PQR458761:PQS458765 QAN458761:QAO458765 QKJ458761:QKK458765 QUF458761:QUG458765 REB458761:REC458765 RNX458761:RNY458765 RXT458761:RXU458765 SHP458761:SHQ458765 SRL458761:SRM458765 TBH458761:TBI458765 TLD458761:TLE458765 TUZ458761:TVA458765 UEV458761:UEW458765 UOR458761:UOS458765 UYN458761:UYO458765 VIJ458761:VIK458765 VSF458761:VSG458765 WCB458761:WCC458765 WLX458761:WLY458765 WVT458761:WVU458765 L524297:M524301 JH524297:JI524301 TD524297:TE524301 ACZ524297:ADA524301 AMV524297:AMW524301 AWR524297:AWS524301 BGN524297:BGO524301 BQJ524297:BQK524301 CAF524297:CAG524301 CKB524297:CKC524301 CTX524297:CTY524301 DDT524297:DDU524301 DNP524297:DNQ524301 DXL524297:DXM524301 EHH524297:EHI524301 ERD524297:ERE524301 FAZ524297:FBA524301 FKV524297:FKW524301 FUR524297:FUS524301 GEN524297:GEO524301 GOJ524297:GOK524301 GYF524297:GYG524301 HIB524297:HIC524301 HRX524297:HRY524301 IBT524297:IBU524301 ILP524297:ILQ524301 IVL524297:IVM524301 JFH524297:JFI524301 JPD524297:JPE524301 JYZ524297:JZA524301 KIV524297:KIW524301 KSR524297:KSS524301 LCN524297:LCO524301 LMJ524297:LMK524301 LWF524297:LWG524301 MGB524297:MGC524301 MPX524297:MPY524301 MZT524297:MZU524301 NJP524297:NJQ524301 NTL524297:NTM524301 ODH524297:ODI524301 OND524297:ONE524301 OWZ524297:OXA524301 PGV524297:PGW524301 PQR524297:PQS524301 QAN524297:QAO524301 QKJ524297:QKK524301 QUF524297:QUG524301 REB524297:REC524301 RNX524297:RNY524301 RXT524297:RXU524301 SHP524297:SHQ524301 SRL524297:SRM524301 TBH524297:TBI524301 TLD524297:TLE524301 TUZ524297:TVA524301 UEV524297:UEW524301 UOR524297:UOS524301 UYN524297:UYO524301 VIJ524297:VIK524301 VSF524297:VSG524301 WCB524297:WCC524301 WLX524297:WLY524301 WVT524297:WVU524301 L589833:M589837 JH589833:JI589837 TD589833:TE589837 ACZ589833:ADA589837 AMV589833:AMW589837 AWR589833:AWS589837 BGN589833:BGO589837 BQJ589833:BQK589837 CAF589833:CAG589837 CKB589833:CKC589837 CTX589833:CTY589837 DDT589833:DDU589837 DNP589833:DNQ589837 DXL589833:DXM589837 EHH589833:EHI589837 ERD589833:ERE589837 FAZ589833:FBA589837 FKV589833:FKW589837 FUR589833:FUS589837 GEN589833:GEO589837 GOJ589833:GOK589837 GYF589833:GYG589837 HIB589833:HIC589837 HRX589833:HRY589837 IBT589833:IBU589837 ILP589833:ILQ589837 IVL589833:IVM589837 JFH589833:JFI589837 JPD589833:JPE589837 JYZ589833:JZA589837 KIV589833:KIW589837 KSR589833:KSS589837 LCN589833:LCO589837 LMJ589833:LMK589837 LWF589833:LWG589837 MGB589833:MGC589837 MPX589833:MPY589837 MZT589833:MZU589837 NJP589833:NJQ589837 NTL589833:NTM589837 ODH589833:ODI589837 OND589833:ONE589837 OWZ589833:OXA589837 PGV589833:PGW589837 PQR589833:PQS589837 QAN589833:QAO589837 QKJ589833:QKK589837 QUF589833:QUG589837 REB589833:REC589837 RNX589833:RNY589837 RXT589833:RXU589837 SHP589833:SHQ589837 SRL589833:SRM589837 TBH589833:TBI589837 TLD589833:TLE589837 TUZ589833:TVA589837 UEV589833:UEW589837 UOR589833:UOS589837 UYN589833:UYO589837 VIJ589833:VIK589837 VSF589833:VSG589837 WCB589833:WCC589837 WLX589833:WLY589837 WVT589833:WVU589837 L655369:M655373 JH655369:JI655373 TD655369:TE655373 ACZ655369:ADA655373 AMV655369:AMW655373 AWR655369:AWS655373 BGN655369:BGO655373 BQJ655369:BQK655373 CAF655369:CAG655373 CKB655369:CKC655373 CTX655369:CTY655373 DDT655369:DDU655373 DNP655369:DNQ655373 DXL655369:DXM655373 EHH655369:EHI655373 ERD655369:ERE655373 FAZ655369:FBA655373 FKV655369:FKW655373 FUR655369:FUS655373 GEN655369:GEO655373 GOJ655369:GOK655373 GYF655369:GYG655373 HIB655369:HIC655373 HRX655369:HRY655373 IBT655369:IBU655373 ILP655369:ILQ655373 IVL655369:IVM655373 JFH655369:JFI655373 JPD655369:JPE655373 JYZ655369:JZA655373 KIV655369:KIW655373 KSR655369:KSS655373 LCN655369:LCO655373 LMJ655369:LMK655373 LWF655369:LWG655373 MGB655369:MGC655373 MPX655369:MPY655373 MZT655369:MZU655373 NJP655369:NJQ655373 NTL655369:NTM655373 ODH655369:ODI655373 OND655369:ONE655373 OWZ655369:OXA655373 PGV655369:PGW655373 PQR655369:PQS655373 QAN655369:QAO655373 QKJ655369:QKK655373 QUF655369:QUG655373 REB655369:REC655373 RNX655369:RNY655373 RXT655369:RXU655373 SHP655369:SHQ655373 SRL655369:SRM655373 TBH655369:TBI655373 TLD655369:TLE655373 TUZ655369:TVA655373 UEV655369:UEW655373 UOR655369:UOS655373 UYN655369:UYO655373 VIJ655369:VIK655373 VSF655369:VSG655373 WCB655369:WCC655373 WLX655369:WLY655373 WVT655369:WVU655373 L720905:M720909 JH720905:JI720909 TD720905:TE720909 ACZ720905:ADA720909 AMV720905:AMW720909 AWR720905:AWS720909 BGN720905:BGO720909 BQJ720905:BQK720909 CAF720905:CAG720909 CKB720905:CKC720909 CTX720905:CTY720909 DDT720905:DDU720909 DNP720905:DNQ720909 DXL720905:DXM720909 EHH720905:EHI720909 ERD720905:ERE720909 FAZ720905:FBA720909 FKV720905:FKW720909 FUR720905:FUS720909 GEN720905:GEO720909 GOJ720905:GOK720909 GYF720905:GYG720909 HIB720905:HIC720909 HRX720905:HRY720909 IBT720905:IBU720909 ILP720905:ILQ720909 IVL720905:IVM720909 JFH720905:JFI720909 JPD720905:JPE720909 JYZ720905:JZA720909 KIV720905:KIW720909 KSR720905:KSS720909 LCN720905:LCO720909 LMJ720905:LMK720909 LWF720905:LWG720909 MGB720905:MGC720909 MPX720905:MPY720909 MZT720905:MZU720909 NJP720905:NJQ720909 NTL720905:NTM720909 ODH720905:ODI720909 OND720905:ONE720909 OWZ720905:OXA720909 PGV720905:PGW720909 PQR720905:PQS720909 QAN720905:QAO720909 QKJ720905:QKK720909 QUF720905:QUG720909 REB720905:REC720909 RNX720905:RNY720909 RXT720905:RXU720909 SHP720905:SHQ720909 SRL720905:SRM720909 TBH720905:TBI720909 TLD720905:TLE720909 TUZ720905:TVA720909 UEV720905:UEW720909 UOR720905:UOS720909 UYN720905:UYO720909 VIJ720905:VIK720909 VSF720905:VSG720909 WCB720905:WCC720909 WLX720905:WLY720909 WVT720905:WVU720909 L786441:M786445 JH786441:JI786445 TD786441:TE786445 ACZ786441:ADA786445 AMV786441:AMW786445 AWR786441:AWS786445 BGN786441:BGO786445 BQJ786441:BQK786445 CAF786441:CAG786445 CKB786441:CKC786445 CTX786441:CTY786445 DDT786441:DDU786445 DNP786441:DNQ786445 DXL786441:DXM786445 EHH786441:EHI786445 ERD786441:ERE786445 FAZ786441:FBA786445 FKV786441:FKW786445 FUR786441:FUS786445 GEN786441:GEO786445 GOJ786441:GOK786445 GYF786441:GYG786445 HIB786441:HIC786445 HRX786441:HRY786445 IBT786441:IBU786445 ILP786441:ILQ786445 IVL786441:IVM786445 JFH786441:JFI786445 JPD786441:JPE786445 JYZ786441:JZA786445 KIV786441:KIW786445 KSR786441:KSS786445 LCN786441:LCO786445 LMJ786441:LMK786445 LWF786441:LWG786445 MGB786441:MGC786445 MPX786441:MPY786445 MZT786441:MZU786445 NJP786441:NJQ786445 NTL786441:NTM786445 ODH786441:ODI786445 OND786441:ONE786445 OWZ786441:OXA786445 PGV786441:PGW786445 PQR786441:PQS786445 QAN786441:QAO786445 QKJ786441:QKK786445 QUF786441:QUG786445 REB786441:REC786445 RNX786441:RNY786445 RXT786441:RXU786445 SHP786441:SHQ786445 SRL786441:SRM786445 TBH786441:TBI786445 TLD786441:TLE786445 TUZ786441:TVA786445 UEV786441:UEW786445 UOR786441:UOS786445 UYN786441:UYO786445 VIJ786441:VIK786445 VSF786441:VSG786445 WCB786441:WCC786445 WLX786441:WLY786445 WVT786441:WVU786445 L851977:M851981 JH851977:JI851981 TD851977:TE851981 ACZ851977:ADA851981 AMV851977:AMW851981 AWR851977:AWS851981 BGN851977:BGO851981 BQJ851977:BQK851981 CAF851977:CAG851981 CKB851977:CKC851981 CTX851977:CTY851981 DDT851977:DDU851981 DNP851977:DNQ851981 DXL851977:DXM851981 EHH851977:EHI851981 ERD851977:ERE851981 FAZ851977:FBA851981 FKV851977:FKW851981 FUR851977:FUS851981 GEN851977:GEO851981 GOJ851977:GOK851981 GYF851977:GYG851981 HIB851977:HIC851981 HRX851977:HRY851981 IBT851977:IBU851981 ILP851977:ILQ851981 IVL851977:IVM851981 JFH851977:JFI851981 JPD851977:JPE851981 JYZ851977:JZA851981 KIV851977:KIW851981 KSR851977:KSS851981 LCN851977:LCO851981 LMJ851977:LMK851981 LWF851977:LWG851981 MGB851977:MGC851981 MPX851977:MPY851981 MZT851977:MZU851981 NJP851977:NJQ851981 NTL851977:NTM851981 ODH851977:ODI851981 OND851977:ONE851981 OWZ851977:OXA851981 PGV851977:PGW851981 PQR851977:PQS851981 QAN851977:QAO851981 QKJ851977:QKK851981 QUF851977:QUG851981 REB851977:REC851981 RNX851977:RNY851981 RXT851977:RXU851981 SHP851977:SHQ851981 SRL851977:SRM851981 TBH851977:TBI851981 TLD851977:TLE851981 TUZ851977:TVA851981 UEV851977:UEW851981 UOR851977:UOS851981 UYN851977:UYO851981 VIJ851977:VIK851981 VSF851977:VSG851981 WCB851977:WCC851981 WLX851977:WLY851981 WVT851977:WVU851981 L917513:M917517 JH917513:JI917517 TD917513:TE917517 ACZ917513:ADA917517 AMV917513:AMW917517 AWR917513:AWS917517 BGN917513:BGO917517 BQJ917513:BQK917517 CAF917513:CAG917517 CKB917513:CKC917517 CTX917513:CTY917517 DDT917513:DDU917517 DNP917513:DNQ917517 DXL917513:DXM917517 EHH917513:EHI917517 ERD917513:ERE917517 FAZ917513:FBA917517 FKV917513:FKW917517 FUR917513:FUS917517 GEN917513:GEO917517 GOJ917513:GOK917517 GYF917513:GYG917517 HIB917513:HIC917517 HRX917513:HRY917517 IBT917513:IBU917517 ILP917513:ILQ917517 IVL917513:IVM917517 JFH917513:JFI917517 JPD917513:JPE917517 JYZ917513:JZA917517 KIV917513:KIW917517 KSR917513:KSS917517 LCN917513:LCO917517 LMJ917513:LMK917517 LWF917513:LWG917517 MGB917513:MGC917517 MPX917513:MPY917517 MZT917513:MZU917517 NJP917513:NJQ917517 NTL917513:NTM917517 ODH917513:ODI917517 OND917513:ONE917517 OWZ917513:OXA917517 PGV917513:PGW917517 PQR917513:PQS917517 QAN917513:QAO917517 QKJ917513:QKK917517 QUF917513:QUG917517 REB917513:REC917517 RNX917513:RNY917517 RXT917513:RXU917517 SHP917513:SHQ917517 SRL917513:SRM917517 TBH917513:TBI917517 TLD917513:TLE917517 TUZ917513:TVA917517 UEV917513:UEW917517 UOR917513:UOS917517 UYN917513:UYO917517 VIJ917513:VIK917517 VSF917513:VSG917517 WCB917513:WCC917517 WLX917513:WLY917517 WVT917513:WVU917517 L983049:M983053 JH983049:JI983053 TD983049:TE983053 ACZ983049:ADA983053 AMV983049:AMW983053 AWR983049:AWS983053 BGN983049:BGO983053 BQJ983049:BQK983053 CAF983049:CAG983053 CKB983049:CKC983053 CTX983049:CTY983053 DDT983049:DDU983053 DNP983049:DNQ983053 DXL983049:DXM983053 EHH983049:EHI983053 ERD983049:ERE983053 FAZ983049:FBA983053 FKV983049:FKW983053 FUR983049:FUS983053 GEN983049:GEO983053 GOJ983049:GOK983053 GYF983049:GYG983053 HIB983049:HIC983053 HRX983049:HRY983053 IBT983049:IBU983053 ILP983049:ILQ983053 IVL983049:IVM983053 JFH983049:JFI983053 JPD983049:JPE983053 JYZ983049:JZA983053 KIV983049:KIW983053 KSR983049:KSS983053 LCN983049:LCO983053 LMJ983049:LMK983053 LWF983049:LWG983053 MGB983049:MGC983053 MPX983049:MPY983053 MZT983049:MZU983053 NJP983049:NJQ983053 NTL983049:NTM983053 ODH983049:ODI983053 OND983049:ONE983053 OWZ983049:OXA983053 PGV983049:PGW983053 PQR983049:PQS983053 QAN983049:QAO983053 QKJ983049:QKK983053 QUF983049:QUG983053 REB983049:REC983053 RNX983049:RNY983053 RXT983049:RXU983053 SHP983049:SHQ983053 SRL983049:SRM983053 TBH983049:TBI983053 TLD983049:TLE983053 TUZ983049:TVA983053 UEV983049:UEW983053 UOR983049:UOS983053 UYN983049:UYO983053 VIJ983049:VIK983053 VSF983049:VSG983053 WCB983049:WCC983053 WLX983049:WLY983053 WVT983049:WVU983053">
       <formula1>"Present, Absent, Late"</formula1>
     </dataValidation>
   </dataValidations>
